--- a/docs/GestaoProjetos/CheckList.xlsx
+++ b/docs/GestaoProjetos/CheckList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento (Metodologia da Escritório de Projetos)</t>
   </si>
@@ -103,6 +103,48 @@
     <t>DEFINIDO COMO A DESCRIÇÃO DE CUSTOS, DOCUMENTOS PADRONIZADOS E FERRAMENTAS, ALÉM DE ESTRUTURAR GASTOS FUTUROS, ESTIMATIVA DE CUSTO E CONTROLE DE CUSTO</t>
   </si>
   <si>
+    <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>TEMPO ATUALIZADO</t>
+  </si>
+  <si>
+    <t>ANALISAR E FAZER UMA RELAÇÃO ENTRE O TEMPO DA SPRINT 2 E O TEMPO DA SPRINT 3, TOMAR DECISÕES BASEADAS NESSAS ANALISES</t>
+  </si>
+  <si>
+    <t>CUSTO ATUALIZADO</t>
+  </si>
+  <si>
+    <t>DETERMINAR O GERENCIAMENTO DE VALOR AGREGADO, PREVISÕES DE ORÇAMENTO, SISTEMA DE CUSTEIO E PLANO CUSTO PARA MAIOR ORGANIZAÇÃO E CONTROLE DE GASTOS</t>
+  </si>
+  <si>
+    <t>DESIGN THINKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSIGNAR A PROTOTIPAÇÃO, BACKLOG E EXECUÇÃO DO PLANO DA PRINCIPAL ENTREGA SPRINT 3, MANTENDO A EMPATIA E A DEFINIÇÃO DO PROBLEMA </t>
+  </si>
+  <si>
+    <t>MATRIZ RACI</t>
+  </si>
+  <si>
+    <t>FUNCIONA COMO UM CHECKLIST ONDE SE VISA O CONTROLE DE ATIVIDADES A SEREM DESENVOLVIDAS, PORÉM EXIGE MAIS INFORMAÇÕES COMO: RESPONSÁVEL, CONTRIBUINTE DATA STATUS ETC.</t>
+  </si>
+  <si>
+    <t>MATRIZ DE COMUNICAÇÕES</t>
+  </si>
+  <si>
+    <t>DETERMINAR AS ATIVIDADES QUE SERÃO FEITAS NA SPRINT VIGENTE E ANOTAR AS INFORMAÇÕES COMPLETAS(WHO, WHERE, HOW, WHAT, WHEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITIL </t>
+  </si>
+  <si>
+    <t>FRONT DISPARO DE ATIVIDADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPLEMENTAÇÃO NO FRONT DE DISPARO DE ATIVIDADES PARA OS FUNCIONARIOS (DIRETORES E ATENDENTES) </t>
+  </si>
+  <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento</t>
   </si>
   <si>
@@ -118,10 +160,28 @@
     <t>APERFEIÇOAMENTO TAP Total</t>
   </si>
   <si>
+    <t>CUSTO ATUALIZADO Total</t>
+  </si>
+  <si>
+    <t>DESIGN THINKING Total</t>
+  </si>
+  <si>
+    <t>FRONT DISPARO DE ATIVIDADES Total</t>
+  </si>
+  <si>
     <t>GERENCIAMENTO DE CUSTO Total</t>
   </si>
   <si>
     <t>GERENCIAMENTO DE VALOR AGREGADO Total</t>
+  </si>
+  <si>
+    <t>ITIL  Total</t>
+  </si>
+  <si>
+    <t>MATRIZ DE COMUNICAÇÕES Total</t>
+  </si>
+  <si>
+    <t>MATRIZ RACI Total</t>
   </si>
   <si>
     <t>PLANO CUSTO Total</t>
@@ -136,6 +196,12 @@
     <t>SPRING REST - APERFEIÇOAMENTO DO BANCO DE DADOS Total</t>
   </si>
   <si>
+    <t>SPRINT 3 Total</t>
+  </si>
+  <si>
+    <t>TEMPO ATUALIZADO Total</t>
+  </si>
+  <si>
     <t>WIDGET - INTERFACE DO CHATBOT Total</t>
   </si>
   <si>
@@ -146,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -173,11 +239,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +274,20 @@
         <bgColor rgb="FFC6D9F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -213,11 +303,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -235,13 +355,10 @@
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -251,14 +368,49 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -268,7 +420,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -298,6 +461,14 @@
         <s v="SISTEMA DE CUSTEIO"/>
         <s v="PREVISÕES DE ORÇAMENTO"/>
         <s v="PLANO CUSTO"/>
+        <s v="SPRINT 3"/>
+        <s v="TEMPO ATUALIZADO"/>
+        <s v="CUSTO ATUALIZADO"/>
+        <s v="DESIGN THINKING"/>
+        <s v="MATRIZ RACI"/>
+        <s v="MATRIZ DE COMUNICAÇÕES"/>
+        <s v="ITIL "/>
+        <s v="FRONT DISPARO DE ATIVIDADES"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -314,6 +485,12 @@
         <s v="DEFININDO UMA ESTIMATIVA DE GASTOS FUTUROS"/>
         <s v="DEFINIDO COMO A DESCRIÇÃO DE CUSTOS, DOCUMENTOS PADRONIZADOS E FERRAMENTAS, ALÉM DE ESTRUTURAR GASTOS FUTUROS, ESTIMATIVA DE CUSTO E CONTROLE DE CUSTO"/>
         <m/>
+        <s v="ANALISAR E FAZER UMA RELAÇÃO ENTRE O TEMPO DA SPRINT 2 E O TEMPO DA SPRINT 3, TOMAR DECISÕES BASEADAS NESSAS ANALISES"/>
+        <s v="DETERMINAR O GERENCIAMENTO DE VALOR AGREGADO, PREVISÕES DE ORÇAMENTO, SISTEMA DE CUSTEIO E PLANO CUSTO PARA MAIOR ORGANIZAÇÃO E CONTROLE DE GASTOS"/>
+        <s v="CONSIGNAR A PROTOTIPAÇÃO, BACKLOG E EXECUÇÃO DO PLANO DA PRINCIPAL ENTREGA SPRINT 3, MANTENDO A EMPATIA E A DEFINIÇÃO DO PROBLEMA "/>
+        <s v="FUNCIONA COMO UM CHECKLIST ONDE SE VISA O CONTROLE DE ATIVIDADES A SEREM DESENVOLVIDAS, PORÉM EXIGE MAIS INFORMAÇÕES COMO: RESPONSÁVEL, CONTRIBUINTE DATA STATUS ETC."/>
+        <s v="DETERMINAR AS ATIVIDADES QUE SERÃO FEITAS NA SPRINT VIGENTE E ANOTAR AS INFORMAÇÕES COMPLETAS(WHO, WHERE, HOW, WHAT, WHEN)"/>
+        <s v="IMPLEMENTAÇÃO NO FRONT DE DISPARO DE ATIVIDADES PARA OS FUNCIONARIOS (DIRETORES E ATENDENTES) "/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sim" numFmtId="0">
@@ -323,8 +500,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Não" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1">
+      <sharedItems containsBlank="1">
         <m/>
+        <s v="X"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Comentários" numFmtId="0">
@@ -338,20 +516,28 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CheckListv2" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A3:C26" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
+  <location ref="A3:C42" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="Processo" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
-        <item x="10"/>
+        <item x="18"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="17"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
         <item x="9"/>
         <item x="8"/>
         <item x="7"/>
         <item x="0"/>
+        <item x="10"/>
+        <item x="11"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -359,6 +545,8 @@
     <pivotField name="Checklist" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
         <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
         <item x="4"/>
         <item x="3"/>
         <item x="9"/>
@@ -366,7 +554,11 @@
         <item x="2"/>
         <item x="8"/>
         <item x="7"/>
+        <item x="15"/>
+        <item x="12"/>
         <item x="1"/>
+        <item x="14"/>
+        <item x="16"/>
         <item x="5"/>
         <item x="6"/>
         <item t="default"/>
@@ -382,6 +574,7 @@
     <pivotField name="Não" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -753,10 +946,10 @@
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="8"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -781,16 +974,16 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -815,16 +1008,16 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -849,16 +1042,16 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -893,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -957,10 +1150,10 @@
       <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1019,11 +1212,13 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1047,10 +1242,16 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="20"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1075,10 +1276,16 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="20"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1103,10 +1310,16 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1131,10 +1344,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1159,10 +1378,16 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1187,10 +1412,12 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1215,10 +1442,16 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="20"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -28683,6 +28916,14 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14:A17">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
@@ -28708,7 +28949,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3"/>
@@ -28735,36 +28976,16 @@
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="17"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="17"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="17"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="17"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="17"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="17"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="17"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="17"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="17"/>
-    </row>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>

--- a/docs/GestaoProjetos/CheckList.xlsx
+++ b/docs/GestaoProjetos/CheckList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento (Metodologia da Escritório de Projetos)</t>
   </si>
@@ -145,74 +145,56 @@
     <t xml:space="preserve">IMPLEMENTAÇÃO NO FRONT DE DISPARO DE ATIVIDADES PARA OS FUNCIONARIOS (DIRETORES E ATENDENTES) </t>
   </si>
   <si>
-    <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento</t>
+    <t>SPRINT 4</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total</t>
+    <t>TEMPO ATUALIZADO (SPRINT 3 / SPRINT 4)</t>
   </si>
   <si>
-    <t>APERFEIÇOAMENTO DECLARAÇÃO DO ESCOPO Total</t>
+    <t>O TEMPO EM RELAÇÃO PLANEJADO X REALIZADO FOI FEITO DE MANEIRA TRANQUILA SEM MUITOS PROBLEMAS SEGUINDO O MESMO PADRÃO DAS SPRINTS ANTERIORES</t>
   </si>
   <si>
-    <t>APERFEIÇOAMENTO GERENCIAMENTO DE CRONOGRAMA Total</t>
+    <t>CUSTO ATUALIZADO (SPRINT 3 / SPRINT 4)</t>
   </si>
   <si>
-    <t>APERFEIÇOAMENTO TAP Total</t>
+    <t>O PLANEJAMENTO DE CUSTO ATUALIZADO DA ENTREGA PASSADA (SPRINT 3) FOI FEITO BASEADO NO CONCEITO DE PLANEJADO X REALIZADO O CONTEUDO FOI ATUALIZADO E A ENTREGA FOI FEITA SEM MUITOS PROBLEMAS</t>
   </si>
   <si>
-    <t>CUSTO ATUALIZADO Total</t>
+    <t>O DESING THINKING ENTREGUE NA SPRINT PASSADA FOI REALIZADO BASEADO NAS NECESSIDADES DE IMPLEMETAR O FRONT QUE ERA UMA DAS PARTES DO PROJETO</t>
   </si>
   <si>
-    <t>DESIGN THINKING Total</t>
+    <t>NA MATRIZ RACI ORGANIZAMOS A ESTRUTURAÇÃO DE ATIVIDADES DA SPRINT E SEUS RESPECTIVOS RESPONSÁVEIS, TUDO SAIU COMO ESPERADO FINALIZANDO A SPRINT COM TODAS AS ENTREGAS REQUISITADAS</t>
   </si>
   <si>
-    <t>FRONT DISPARO DE ATIVIDADES Total</t>
+    <t xml:space="preserve">NA MATRIZ DE COMUICAÇÕES FORAM FEITAS TAMBÉM VARIAS ANOTAÇÕES SOBRE AS ATIVIDADES A SEREM DESEMPENHADAS DE UMA MANEIRA MAIS CARACTERIZADA TUDO FEITO COMO ESPERADO </t>
   </si>
   <si>
-    <t>GERENCIAMENTO DE CUSTO Total</t>
+    <t>AGENDAMENTO DE ATIVIDADES</t>
   </si>
   <si>
-    <t>GERENCIAMENTO DE VALOR AGREGADO Total</t>
+    <t xml:space="preserve">O DIRETOR PODE AGENDAR ATIVIDADES ESPECÍFICAS PARA UM OU MAIS FUNCIONÁRIOS ALÉM DE POSSUIR UM STATUS PARA MAIOR CONTROLE DE DISPARO DAS ATIVIDADES EM RELAÇÃO AS QUE FORAM CONCLUIDAS </t>
   </si>
   <si>
-    <t>ITIL  Total</t>
+    <t>PLANO DE RISCO</t>
   </si>
   <si>
-    <t>MATRIZ DE COMUNICAÇÕES Total</t>
+    <t>GERENCIAR OS RISCOS DO PROJETO COMO UM TODO DESCREVENDO OS PROCESSOS DE RISCO</t>
   </si>
   <si>
-    <t>MATRIZ RACI Total</t>
+    <t xml:space="preserve">CATÁLOGO DE SERVIÇOS </t>
   </si>
   <si>
-    <t>PLANO CUSTO Total</t>
+    <t>CATÁLOGO DE SERVIÇOS SERIA TODOS OS SERVIÇOS ATIVOS QUE NOS ESTAMOS PRESTANDO PARA O CLIENTE</t>
   </si>
   <si>
-    <t>PREVISÕES DE ORÇAMENTO Total</t>
-  </si>
-  <si>
-    <t>SISTEMA DE CUSTEIO Total</t>
-  </si>
-  <si>
-    <t>SPRING REST - APERFEIÇOAMENTO DO BANCO DE DADOS Total</t>
-  </si>
-  <si>
-    <t>SPRINT 3 Total</t>
-  </si>
-  <si>
-    <t>TEMPO ATUALIZADO Total</t>
-  </si>
-  <si>
-    <t>WIDGET - INTERFACE DO CHATBOT Total</t>
-  </si>
-  <si>
-    <t>Total geral</t>
+    <t>Lista de Verificação da Qualidade - Processos de Gerenciamento de Projeto do Planejamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -249,10 +231,6 @@
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -337,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -385,10 +363,10 @@
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -406,10 +384,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -450,7 +431,7 @@
   </cacheSource>
   <cacheFields>
     <cacheField name="Processo" numFmtId="0">
-      <sharedItems containsBlank="1">
+      <sharedItems>
         <s v="SPRING REST - APERFEIÇOAMENTO DO BANCO DE DADOS"/>
         <s v="WIDGET - INTERFACE DO CHATBOT"/>
         <s v="APERFEIÇOAMENTO DECLARAÇÃO DO ESCOPO"/>
@@ -469,7 +450,9 @@
         <s v="MATRIZ DE COMUNICAÇÕES"/>
         <s v="ITIL "/>
         <s v="FRONT DISPARO DE ATIVIDADES"/>
-        <m/>
+        <s v="SPRINT 4"/>
+        <s v="TEMPO ATUALIZADO (SPRINT 3 / SPRINT 4)"/>
+        <s v="CUSTO ATUALIZADO (SPRINT 3 / SPRINT 4)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Checklist" numFmtId="0">
@@ -500,14 +483,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Não" numFmtId="0">
-      <sharedItems containsBlank="1">
+      <sharedItems containsString="0" containsBlank="1">
         <m/>
-        <s v="X"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Comentários" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1">
+      <sharedItems containsBlank="1">
         <m/>
+        <s v="O TEMPO EM RELAÇÃO PLANEJADO X REALIZADO FOI FEITO DE MANEIRA TRANQUILA SEM MUITOS PROBLEMAS SEGUINDO O MESMO PADRÃO DAS SPRINTS ANTERIORES"/>
+        <s v="O PLANEJAMENTO DE CUSTO ATUALIZADO DA ENTREGA PASSADA (SPRINT 3) FOI FEITO BASEADO NO CONCEITO DE PLANEJADO X REALIZADO O CONTEUDO FOI ATUALIZADO E A ENTREGA FOI FEITA SEM MUITOS PROBLEMAS"/>
+        <s v="O DESING THINKING ENTREGUE NA SPRINT PASSADA FOI REALIZADO BASEADO NAS NECESSIDADES DE IMPLEMETAR O FRONT QUE ERA UMA DAS PARTES DO PROJETO"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -516,15 +501,15 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CheckListv2" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A3:C42" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
+  <location ref="A3:C46" firstHeaderRow="0" firstDataRow="2" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="Processo" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
-        <item x="18"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="12"/>
+        <item x="20"/>
         <item x="13"/>
         <item x="17"/>
         <item x="5"/>
@@ -537,7 +522,9 @@
         <item x="7"/>
         <item x="0"/>
         <item x="10"/>
+        <item x="18"/>
         <item x="11"/>
+        <item x="19"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -574,13 +561,15 @@
     <pivotField name="Não" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Comentários" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1316,10 +1305,10 @@
       <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1350,10 +1339,10 @@
       <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1445,7 +1434,7 @@
       <c r="A20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -1476,11 +1465,13 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1504,11 +1495,19 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1532,11 +1531,19 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1560,11 +1567,19 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1588,11 +1603,19 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1616,11 +1639,19 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1644,9 +1675,15 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1672,9 +1709,15 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1700,9 +1743,15 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -28916,10 +28965,11 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
-  <conditionalFormatting sqref="A14:A17">
+  <conditionalFormatting sqref="A14:A17 A22:A25">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
@@ -28949,7 +28999,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3"/>
